--- a/MatlabWorkingDirectory/CoreLossDataOLD.xlsx
+++ b/MatlabWorkingDirectory/CoreLossDataOLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Scripts/Theses/WeightScripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Projects/MyWork/SEAL/Theses/WorkingDirectory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{CB2B1F70-5B65-8E49-AE0D-ECC9AB999B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9095BA82-361A-8849-9555-8F429F57E534}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{CB2B1F70-5B65-8E49-AE0D-ECC9AB999B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0418CC2-A1F1-4D8A-B118-A22F485ADFC7}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="840" windowWidth="16440" windowHeight="16440" activeTab="5" xr2:uid="{DBBFF40C-08CE-4204-B8AA-93E46D4D41B4}"/>
+    <workbookView xWindow="-15045" yWindow="-3540" windowWidth="13515" windowHeight="11385" activeTab="5" xr2:uid="{DBBFF40C-08CE-4204-B8AA-93E46D4D41B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Freq" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>Material</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Density</t>
+  </si>
+  <si>
+    <t>Finemet FT-3M .018mm</t>
   </si>
 </sst>
 </file>
@@ -183,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,19 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAB3957-C599-4EF5-ADED-AAAA23B84F7B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +551,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -576,6 +575,26 @@
       </c>
       <c r="H2">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -585,18 +604,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2C21D4-B214-41DA-A3D0-E209B569448D}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="A3:H7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,6 +670,26 @@
         <v>0.5</v>
       </c>
       <c r="H2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
         <v>0.6</v>
       </c>
     </row>
@@ -661,19 +700,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144D67B0-4418-460A-9C79-0C18C12E35CB}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -708,6 +747,17 @@
       </c>
       <c r="C2">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -717,18 +767,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179D8C7E-15F9-48DF-9250-6C37E27A8B54}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="I7" sqref="A3:I7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -784,6 +834,30 @@
       </c>
       <c r="H2">
         <v>2718.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <f>7.3*4.482</f>
+        <v>32.718600000000002</v>
+      </c>
+      <c r="D3">
+        <f>7.3*18.397</f>
+        <v>134.29809999999998</v>
+      </c>
+      <c r="E3">
+        <f>7.3*3.762</f>
+        <v>27.462599999999998</v>
+      </c>
+      <c r="F3">
+        <f>7.3*16.398</f>
+        <v>119.7054</v>
       </c>
     </row>
   </sheetData>
@@ -793,18 +867,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C9596B-151E-4D3F-B742-CE0B240D8584}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -839,6 +913,17 @@
       </c>
       <c r="C2">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
@@ -848,18 +933,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B1355B-759E-0543-8F8C-AEFC5B331D69}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +960,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -884,6 +969,17 @@
       </c>
       <c r="C2">
         <v>7.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
